--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.dordolo\Desktop\Adquisidor\PCB\Placa_base\modulo_adquisidor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\MSE\Adquisidor\modulo_adquisidor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Placa_base" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="354">
   <si>
     <t>Eeschema (5.0.2)-1</t>
   </si>
@@ -870,21 +870,240 @@
     <t>https://www.digikey.com/product-detail/en/micro-commercial-co/MMBT3904-TP/MMBT3904TPMSCT-ND/717395</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en/integrated-circuits-ics/embedded-microcontrollers/685?k=STM32F407VG&amp;k=&amp;pkeyword=STM32F407VG&amp;sv=0&amp;sf=0&amp;FV=ffe002ad&amp;quantity=1&amp;ColumnSort=1000011&amp;page=1&amp;stock=1&amp;pageSize=25</t>
-  </si>
-  <si>
     <t>R1, R2,R69, R77</t>
   </si>
   <si>
     <t>R15, R20, R21, R24, 
 R25, R29,R13, R14, R22,R27,R70, R78</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>478-2402-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1019-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1000-1-ND</t>
+  </si>
+  <si>
+    <t>445-14527-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1009-1-ND</t>
+  </si>
+  <si>
+    <t>311-1737-1-ND</t>
+  </si>
+  <si>
+    <t>311-3924-1-ND</t>
+  </si>
+  <si>
+    <t>490-10498-1-ND</t>
+  </si>
+  <si>
+    <t>399-14115-ND</t>
+  </si>
+  <si>
+    <t>732-7760-1-ND</t>
+  </si>
+  <si>
+    <t>478-10278-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1094-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1018-1-ND</t>
+  </si>
+  <si>
+    <t>S5JBR5GCT-ND</t>
+  </si>
+  <si>
+    <t>B340-FDICT-ND</t>
+  </si>
+  <si>
+    <t>1727-7681-1-ND</t>
+  </si>
+  <si>
+    <t>497-2996-1-ND</t>
+  </si>
+  <si>
+    <t>BAV99LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>641-1018-1-ND</t>
+  </si>
+  <si>
+    <t>MF-USMF020-2CT-ND</t>
+  </si>
+  <si>
+    <t>445-2205-1-ND</t>
+  </si>
+  <si>
+    <t>445-2166-1-ND</t>
+  </si>
+  <si>
+    <t>HR1964CT-ND</t>
+  </si>
+  <si>
+    <t>MMBT3904TPMSCT-ND</t>
+  </si>
+  <si>
+    <t>785-1001-1-ND</t>
+  </si>
+  <si>
+    <t>AZ1117IH-3.3TRG1DICT-ND</t>
+  </si>
+  <si>
+    <t>945-3159-ND</t>
+  </si>
+  <si>
+    <t>296-53077-ND</t>
+  </si>
+  <si>
+    <t>MCP6L04T-E-STCT-ND</t>
+  </si>
+  <si>
+    <t>296-14870-1-ND</t>
+  </si>
+  <si>
+    <t>XC2158CT-ND</t>
+  </si>
+  <si>
+    <t>887-1233-ND</t>
+  </si>
+  <si>
+    <t>828-1058-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/STM32F407VGT6/497-11605-ND/2747117</t>
+  </si>
+  <si>
+    <t>497-11605-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT10K0/RMCF0603FT10K0CT-ND/1943057</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT510R/RMCF0603FT510RCT-ND/2418081</t>
+  </si>
+  <si>
+    <t>RMCF0603FT510RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603ZT0R00/RMCF0603ZT0R00CT-ND/1943218</t>
+  </si>
+  <si>
+    <t>RMCF0603ZT0R00CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT4K70/RMCF0603FT4K70CT-ND/1943033</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT47R0/RMCF0603FT47R0CT-ND/1942954</t>
+  </si>
+  <si>
+    <t>RMCF0603FT47R0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT1K00/RMCF0603FT1K00CT-ND/1942996</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT5K60/RMCF0603FT5K60CT-ND/2418099</t>
+  </si>
+  <si>
+    <t>RMCF0603FT5K60CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT120R/RMCF0603FT120RCT-ND/1942967</t>
+  </si>
+  <si>
+    <t>RMCF0603FT120RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT150K/RMCF0603FT150KCT-ND/1943124</t>
+  </si>
+  <si>
+    <t>RMCF0603FT150KCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FG15K0/RMCF0603FG15K0CT-ND/4425035</t>
+  </si>
+  <si>
+    <t>RMCF0603FG15K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT1K50/RMCF0603FT1K50CT-ND/1943003</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K50CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT12K0/RMCF0603FT12K0CT-ND/1943062</t>
+  </si>
+  <si>
+    <t>RMCF0603FT12K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT47K0/RMCF0603FT47K0CT-ND/1943099</t>
+  </si>
+  <si>
+    <t>RMCF0603FT47K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/koa-speer-electronics-inc/RK73H1JTTD4R70F/2019-RK73H1JTTD4R70FCT-ND/9846919</t>
+  </si>
+  <si>
+    <t>2019-RK73H1JTTD4R70FCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT220R/RMCF0603FT220RCT-ND/1942973</t>
+  </si>
+  <si>
+    <t>RMCF0603FT220RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT261R/RMCF0603FT261RCT-ND/2417998</t>
+  </si>
+  <si>
+    <t>RMCF0603FT261RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT330R/RMCF0603FT330RCT-ND/1942981</t>
+  </si>
+  <si>
+    <t>RMCF0603FT330RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0603FT56K0/RMCF0603FT56K0CT-ND/2418092</t>
+  </si>
+  <si>
+    <t>RMCF0603FT56K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-P06J101V/P100ADCT-ND/525436</t>
+  </si>
+  <si>
+    <t>P100ADCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,14 +1257,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1346,7 +1557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1389,9 +1600,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1413,56 +1623,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1641,6 +1865,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1729,23 +1971,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:G85" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A6:G84"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Ref" dataDxfId="11" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Qty" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Value" dataDxfId="10" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Part" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Footprint" dataDxfId="8" totalsRowDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:H85" totalsRowCount="1" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A6:H84"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Ref" dataDxfId="13" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Qty" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Value" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Part" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Footprint" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="Column1" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="6" name="Datasheet" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Description" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Description" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2007,29 +2250,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H89"/>
+  <dimension ref="A2:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>271</v>
       </c>
@@ -2038,7 +2283,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -2055,16 +2300,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2081,14 +2329,17 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>265</v>
       </c>
@@ -2105,14 +2356,17 @@
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>263</v>
       </c>
@@ -2129,14 +2383,17 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2153,14 +2410,17 @@
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -2177,14 +2437,17 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -2201,14 +2464,17 @@
         <v>15</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2225,14 +2491,17 @@
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>262</v>
       </c>
@@ -2249,14 +2518,17 @@
         <v>21</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -2273,14 +2545,17 @@
         <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
@@ -2297,14 +2572,17 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -2321,14 +2599,17 @@
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -2345,14 +2626,17 @@
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2369,14 +2653,17 @@
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -2393,14 +2680,17 @@
         <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>264</v>
       </c>
@@ -2416,15 +2706,16 @@
       <c r="E21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -2440,15 +2731,18 @@
       <c r="E22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" t="s">
         <v>274</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -2465,14 +2759,17 @@
         <v>69</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
@@ -2489,14 +2786,17 @@
         <v>75</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -2512,15 +2812,18 @@
       <c r="E25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" t="s">
         <v>275</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>82</v>
       </c>
@@ -2536,15 +2839,18 @@
       <c r="E26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -2561,14 +2867,17 @@
         <v>88</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -2585,14 +2894,17 @@
         <v>92</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -2609,14 +2921,17 @@
         <v>92</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>100</v>
       </c>
@@ -2632,13 +2947,14 @@
       <c r="E30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>104</v>
       </c>
@@ -2654,13 +2970,14 @@
       <c r="E31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>108</v>
       </c>
@@ -2676,13 +2993,14 @@
       <c r="E32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>112</v>
       </c>
@@ -2698,13 +3016,14 @@
       <c r="E33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
@@ -2720,13 +3039,14 @@
       <c r="E34" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
@@ -2742,13 +3062,14 @@
       <c r="E35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>120</v>
       </c>
@@ -2764,13 +3085,14 @@
       <c r="E36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>122</v>
       </c>
@@ -2787,12 +3109,15 @@
         <v>124</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
@@ -2808,13 +3133,14 @@
       <c r="E38" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>130</v>
       </c>
@@ -2830,13 +3156,14 @@
       <c r="E39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>132</v>
       </c>
@@ -2852,13 +3179,14 @@
       <c r="E40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>136</v>
       </c>
@@ -2874,13 +3202,14 @@
       <c r="E41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>138</v>
       </c>
@@ -2896,13 +3225,14 @@
       <c r="E42" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>140</v>
       </c>
@@ -2918,13 +3248,14 @@
       <c r="E43" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>144</v>
       </c>
@@ -2940,13 +3271,14 @@
       <c r="E44" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>147</v>
       </c>
@@ -2962,15 +3294,16 @@
       <c r="E45" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>151</v>
       </c>
@@ -2986,15 +3319,16 @@
       <c r="E46" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>154</v>
       </c>
@@ -3010,15 +3344,16 @@
       <c r="E47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>159</v>
       </c>
@@ -3034,15 +3369,16 @@
       <c r="E48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>161</v>
       </c>
@@ -3058,15 +3394,18 @@
       <c r="E49" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
         <v>277</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>164</v>
       </c>
@@ -3083,16 +3422,19 @@
         <v>80</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" t="s">
         <v>167</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B51" s="5">
         <v>4</v>
@@ -3107,14 +3449,17 @@
         <v>92</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>172</v>
       </c>
@@ -3131,14 +3476,17 @@
         <v>92</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" t="s">
+        <v>318</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>266</v>
       </c>
@@ -3155,14 +3503,17 @@
         <v>92</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" t="s">
+        <v>320</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>173</v>
       </c>
@@ -3179,14 +3530,17 @@
         <v>92</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>174</v>
       </c>
@@ -3203,14 +3557,17 @@
         <v>92</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>176</v>
       </c>
@@ -3226,17 +3583,18 @@
       <c r="E56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="5">
         <v>12</v>
@@ -3251,14 +3609,17 @@
         <v>92</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>179</v>
       </c>
@@ -3275,14 +3636,17 @@
         <v>92</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>181</v>
       </c>
@@ -3299,14 +3663,17 @@
         <v>183</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>184</v>
       </c>
@@ -3323,14 +3690,17 @@
         <v>92</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G60" t="s">
+        <v>330</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>185</v>
       </c>
@@ -3346,13 +3716,18 @@
       <c r="E61" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="s">
+      <c r="F61" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>267</v>
       </c>
@@ -3369,14 +3744,17 @@
         <v>92</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G62" t="s">
+        <v>334</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>188</v>
       </c>
@@ -3393,14 +3771,17 @@
         <v>92</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G63" t="s">
+        <v>336</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>190</v>
       </c>
@@ -3417,14 +3798,17 @@
         <v>92</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>192</v>
       </c>
@@ -3441,14 +3825,17 @@
         <v>92</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G65" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>194</v>
       </c>
@@ -3465,14 +3852,17 @@
         <v>92</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G66" t="s">
+        <v>342</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>196</v>
       </c>
@@ -3489,14 +3879,17 @@
         <v>92</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G67" t="s">
+        <v>344</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>197</v>
       </c>
@@ -3513,14 +3906,17 @@
         <v>92</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G68" t="s">
+        <v>350</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>199</v>
       </c>
@@ -3537,14 +3933,17 @@
         <v>92</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>200</v>
       </c>
@@ -3561,14 +3960,17 @@
         <v>92</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>201</v>
       </c>
@@ -3584,13 +3986,14 @@
       <c r="E71" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="5"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>205</v>
       </c>
@@ -3606,15 +4009,18 @@
       <c r="E72" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F72" t="s">
-        <v>278</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>209</v>
       </c>
@@ -3630,15 +4036,16 @@
       <c r="E73" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>214</v>
       </c>
@@ -3655,14 +4062,17 @@
         <v>216</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74" t="s">
         <v>217</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>219</v>
       </c>
@@ -3679,12 +4089,15 @@
         <v>221</v>
       </c>
       <c r="F75" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G75" t="s">
         <v>222</v>
       </c>
-      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>223</v>
       </c>
@@ -3701,12 +4114,15 @@
         <v>225</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" t="s">
         <v>226</v>
       </c>
-      <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>227</v>
       </c>
@@ -3722,15 +4138,16 @@
       <c r="E77" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>232</v>
       </c>
@@ -3746,15 +4163,16 @@
       <c r="E78" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>237</v>
       </c>
@@ -3770,13 +4188,14 @@
       <c r="E79" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>241</v>
       </c>
@@ -3793,14 +4212,17 @@
         <v>244</v>
       </c>
       <c r="F80" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" t="s">
         <v>245</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>247</v>
       </c>
@@ -3817,14 +4239,17 @@
         <v>249</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G81" t="s">
         <v>250</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>252</v>
       </c>
@@ -3841,14 +4266,17 @@
         <v>255</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G82" t="s">
         <v>256</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>258</v>
       </c>
@@ -3865,14 +4293,17 @@
         <v>260</v>
       </c>
       <c r="F83" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G83" t="s">
         <v>261</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5">
         <v>1</v>
@@ -3883,12 +4314,15 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G84" t="s">
         <v>272</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="5"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
@@ -3896,28 +4330,26 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="4"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>